--- a/LoadScripts/Database/Database/Datafeed/TradeMasterKey_DataFeed.xlsx
+++ b/LoadScripts/Database/Database/Datafeed/TradeMasterKey_DataFeed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18250" windowHeight="8290"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18252" windowHeight="8292"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="11">
   <si>
     <t>JesseTradingMasterKeyId</t>
   </si>
@@ -414,27 +414,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:J28"/>
+      <selection activeCell="A34" sqref="A34:J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>6773</v>
       </c>
@@ -498,7 +498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>6774</v>
       </c>
@@ -530,7 +530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>9344</v>
       </c>
@@ -562,7 +562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>9829</v>
       </c>
@@ -594,7 +594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>10857</v>
       </c>
@@ -626,7 +626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>13792</v>
       </c>
@@ -658,7 +658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>14769</v>
       </c>
@@ -690,7 +690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>16171</v>
       </c>
@@ -722,7 +722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>16173</v>
       </c>
@@ -754,7 +754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>16688</v>
       </c>
@@ -786,7 +786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>16870</v>
       </c>
@@ -818,7 +818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>18888</v>
       </c>
@@ -850,7 +850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>19058</v>
       </c>
@@ -882,7 +882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>19306</v>
       </c>
@@ -914,7 +914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>19535</v>
       </c>
@@ -946,7 +946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>20309</v>
       </c>
@@ -978,7 +978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>21226</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>21670</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>22790</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>24959</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>25464</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>25681</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>25682</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>27000</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>27279</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>27712</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>28573</v>
       </c>
@@ -1327,6 +1327,198 @@
         <v>10</v>
       </c>
       <c r="J28" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28799</v>
+      </c>
+      <c r="B29" s="1">
+        <v>19</v>
+      </c>
+      <c r="C29" s="2">
+        <v>41502</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1985.35</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>28800</v>
+      </c>
+      <c r="B30" s="1">
+        <v>6</v>
+      </c>
+      <c r="C30" s="2">
+        <v>41556</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2153.9</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>32003</v>
+      </c>
+      <c r="B31" s="1">
+        <v>124</v>
+      </c>
+      <c r="C31" s="2">
+        <v>39531</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="1">
+        <v>28.37</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>32431</v>
+      </c>
+      <c r="B32" s="1">
+        <v>285</v>
+      </c>
+      <c r="C32" s="2">
+        <v>40906</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32800</v>
+      </c>
+      <c r="B33" s="1">
+        <v>50</v>
+      </c>
+      <c r="C33" s="2">
+        <v>39884</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="1">
+        <v>45.23</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33207</v>
+      </c>
+      <c r="B34" s="1">
+        <v>99</v>
+      </c>
+      <c r="C34" s="2">
+        <v>39870</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="1">
+        <v>38.380000000000003</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/LoadScripts/Database/Database/Datafeed/TradeMasterKey_DataFeed.xlsx
+++ b/LoadScripts/Database/Database/Datafeed/TradeMasterKey_DataFeed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="11">
   <si>
     <t>JesseTradingMasterKeyId</t>
   </si>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:J34"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1522,6 +1522,134 @@
         <v>10</v>
       </c>
     </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>33897</v>
+      </c>
+      <c r="B35" s="1">
+        <v>457</v>
+      </c>
+      <c r="C35" s="2">
+        <v>39776</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="1">
+        <v>45.23</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>34322</v>
+      </c>
+      <c r="B36" s="1">
+        <v>230</v>
+      </c>
+      <c r="C36" s="2">
+        <v>39745</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="1">
+        <v>24.05</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>34504</v>
+      </c>
+      <c r="B37" s="1">
+        <v>289</v>
+      </c>
+      <c r="C37" s="2">
+        <v>40318</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="1">
+        <v>261.05</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>34952</v>
+      </c>
+      <c r="B38" s="1">
+        <v>20</v>
+      </c>
+      <c r="C38" s="2">
+        <v>41264</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1">
+        <v>132.69999999999999</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LoadScripts/Database/Database/Datafeed/TradeMasterKey_DataFeed.xlsx
+++ b/LoadScripts/Database/Database/Datafeed/TradeMasterKey_DataFeed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="11">
   <si>
     <t>JesseTradingMasterKeyId</t>
   </si>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1650,6 +1650,294 @@
         <v>10</v>
       </c>
     </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>36567</v>
+      </c>
+      <c r="B39" s="1">
+        <v>86</v>
+      </c>
+      <c r="C39" s="2">
+        <v>39780</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="1">
+        <v>29.52</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>37203</v>
+      </c>
+      <c r="B40" s="1">
+        <v>248</v>
+      </c>
+      <c r="C40" s="2">
+        <v>41060</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="1">
+        <v>38.67</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>38299</v>
+      </c>
+      <c r="B41" s="1">
+        <v>478</v>
+      </c>
+      <c r="C41" s="2">
+        <v>39836</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="1">
+        <v>7.53</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>38882</v>
+      </c>
+      <c r="B42" s="1">
+        <v>56</v>
+      </c>
+      <c r="C42" s="2">
+        <v>39876</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="1">
+        <v>352.25</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>39381</v>
+      </c>
+      <c r="B43" s="1">
+        <v>59</v>
+      </c>
+      <c r="C43" s="2">
+        <v>39777</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="1">
+        <v>397.1</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>39945</v>
+      </c>
+      <c r="B44" s="1">
+        <v>14</v>
+      </c>
+      <c r="C44" s="2">
+        <v>42324</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="1">
+        <v>15262.15</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>40039</v>
+      </c>
+      <c r="B45" s="1">
+        <v>49</v>
+      </c>
+      <c r="C45" s="2">
+        <v>41514</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="1">
+        <v>45.17</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>40310</v>
+      </c>
+      <c r="B46" s="1">
+        <v>37</v>
+      </c>
+      <c r="C46" s="2">
+        <v>41127</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="1">
+        <v>120.45</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>40311</v>
+      </c>
+      <c r="B47" s="1">
+        <v>35</v>
+      </c>
+      <c r="C47" s="2">
+        <v>41130</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="1">
+        <v>169.95</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LoadScripts/Database/Database/Datafeed/TradeMasterKey_DataFeed.xlsx
+++ b/LoadScripts/Database/Database/Datafeed/TradeMasterKey_DataFeed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="11">
   <si>
     <t>JesseTradingMasterKeyId</t>
   </si>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:J47"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -820,13 +820,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>18888</v>
+        <v>17565</v>
       </c>
       <c r="B13" s="1">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="C13" s="2">
-        <v>41295</v>
+        <v>41274</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>10</v>
@@ -835,7 +835,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="1">
-        <v>459.98</v>
+        <v>783.55</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>10</v>
@@ -852,13 +852,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>19058</v>
+        <v>18659</v>
       </c>
       <c r="B14" s="1">
-        <v>470</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2">
-        <v>41239</v>
+        <v>41145</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>10</v>
@@ -867,7 +867,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="1">
-        <v>298.8</v>
+        <v>367.05</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>10</v>
@@ -884,13 +884,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>19306</v>
+        <v>18888</v>
       </c>
       <c r="B15" s="1">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2">
-        <v>41129</v>
+        <v>41295</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>10</v>
@@ -899,7 +899,7 @@
         <v>10</v>
       </c>
       <c r="F15" s="1">
-        <v>192.45</v>
+        <v>459.98</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>10</v>
@@ -916,13 +916,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>19535</v>
+        <v>19058</v>
       </c>
       <c r="B16" s="1">
-        <v>45</v>
+        <v>470</v>
       </c>
       <c r="C16" s="2">
-        <v>41129</v>
+        <v>41239</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>10</v>
@@ -931,7 +931,7 @@
         <v>10</v>
       </c>
       <c r="F16" s="1">
-        <v>1641.55</v>
+        <v>298.8</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>10</v>
@@ -948,13 +948,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>20309</v>
+        <v>19306</v>
       </c>
       <c r="B17" s="1">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="C17" s="2">
-        <v>39885</v>
+        <v>41129</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>10</v>
@@ -962,11 +962,11 @@
       <c r="E17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="1">
-        <v>15.9</v>
+      <c r="F17" s="1">
+        <v>192.45</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>10</v>
@@ -980,13 +980,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>21226</v>
+        <v>19535</v>
       </c>
       <c r="B18" s="1">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2">
-        <v>39785</v>
+        <v>41129</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>10</v>
@@ -994,11 +994,11 @@
       <c r="E18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="1">
-        <v>38</v>
+      <c r="F18" s="1">
+        <v>1641.55</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>10</v>
@@ -1012,13 +1012,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>21670</v>
+        <v>20309</v>
       </c>
       <c r="B19" s="1">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="C19" s="2">
-        <v>41292</v>
+        <v>39885</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>10</v>
@@ -1026,11 +1026,11 @@
       <c r="E19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="1">
-        <v>144.97999999999999</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>10</v>
+      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1">
+        <v>15.9</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>10</v>
@@ -1044,13 +1044,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>22790</v>
+        <v>21226</v>
       </c>
       <c r="B20" s="1">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="C20" s="2">
-        <v>41277</v>
+        <v>39785</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>10</v>
@@ -1058,11 +1058,11 @@
       <c r="E20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="1">
-        <v>442.3</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>10</v>
+      <c r="F20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="1">
+        <v>38</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>10</v>
@@ -1076,13 +1076,13 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>24959</v>
+        <v>21670</v>
       </c>
       <c r="B21" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C21" s="2">
-        <v>41135</v>
+        <v>41292</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>10</v>
@@ -1091,7 +1091,7 @@
         <v>10</v>
       </c>
       <c r="F21" s="1">
-        <v>608.15</v>
+        <v>144.97999999999999</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>10</v>
@@ -1108,13 +1108,13 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>25464</v>
+        <v>23126</v>
       </c>
       <c r="B22" s="1">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C22" s="2">
-        <v>41130</v>
+        <v>41277</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>10</v>
@@ -1123,7 +1123,7 @@
         <v>10</v>
       </c>
       <c r="F22" s="1">
-        <v>623.11</v>
+        <v>442.3</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>10</v>
@@ -1140,13 +1140,13 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>25681</v>
+        <v>24959</v>
       </c>
       <c r="B23" s="1">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C23" s="2">
-        <v>41282</v>
+        <v>41135</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>10</v>
@@ -1155,7 +1155,7 @@
         <v>10</v>
       </c>
       <c r="F23" s="1">
-        <v>249.34</v>
+        <v>608.15</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>10</v>
@@ -1172,13 +1172,13 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>25682</v>
+        <v>25464</v>
       </c>
       <c r="B24" s="1">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="C24" s="2">
-        <v>41257</v>
+        <v>41130</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>10</v>
@@ -1187,7 +1187,7 @@
         <v>10</v>
       </c>
       <c r="F24" s="1">
-        <v>168.29</v>
+        <v>623.11</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>10</v>
@@ -1204,13 +1204,13 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>27000</v>
+        <v>25681</v>
       </c>
       <c r="B25" s="1">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C25" s="2">
-        <v>41137</v>
+        <v>41282</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>10</v>
@@ -1219,7 +1219,7 @@
         <v>10</v>
       </c>
       <c r="F25" s="1">
-        <v>656.62</v>
+        <v>249.34</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>10</v>
@@ -1236,13 +1236,13 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>27279</v>
+        <v>25682</v>
       </c>
       <c r="B26" s="1">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C26" s="2">
-        <v>41638</v>
+        <v>41257</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>10</v>
@@ -1251,7 +1251,7 @@
         <v>10</v>
       </c>
       <c r="F26" s="1">
-        <v>119.6</v>
+        <v>168.29</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>10</v>
@@ -1268,10 +1268,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>27712</v>
+        <v>27000</v>
       </c>
       <c r="B27" s="1">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C27" s="2">
         <v>41137</v>
@@ -1283,7 +1283,7 @@
         <v>10</v>
       </c>
       <c r="F27" s="1">
-        <v>356</v>
+        <v>656.62</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>10</v>
@@ -1300,13 +1300,13 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>28573</v>
+        <v>27279</v>
       </c>
       <c r="B28" s="1">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="C28" s="2">
-        <v>41295</v>
+        <v>41638</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>10</v>
@@ -1315,7 +1315,7 @@
         <v>10</v>
       </c>
       <c r="F28" s="1">
-        <v>355.55</v>
+        <v>119.6</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>10</v>
@@ -1332,13 +1332,13 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>28799</v>
+        <v>27712</v>
       </c>
       <c r="B29" s="1">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C29" s="2">
-        <v>41502</v>
+        <v>41137</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>10</v>
@@ -1347,7 +1347,7 @@
         <v>10</v>
       </c>
       <c r="F29" s="1">
-        <v>1985.35</v>
+        <v>356</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>10</v>
@@ -1364,13 +1364,13 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>28800</v>
+        <v>28799</v>
       </c>
       <c r="B30" s="1">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C30" s="2">
-        <v>41556</v>
+        <v>41502</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>10</v>
@@ -1379,7 +1379,7 @@
         <v>10</v>
       </c>
       <c r="F30" s="1">
-        <v>2153.9</v>
+        <v>1985.35</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>10</v>
@@ -1396,13 +1396,13 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>32003</v>
+        <v>28800</v>
       </c>
       <c r="B31" s="1">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="C31" s="2">
-        <v>39531</v>
+        <v>41556</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>10</v>
@@ -1410,11 +1410,11 @@
       <c r="E31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="1">
-        <v>28.37</v>
+      <c r="F31" s="1">
+        <v>2153.9</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>10</v>
@@ -1428,13 +1428,13 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>32431</v>
+        <v>28801</v>
       </c>
       <c r="B32" s="1">
-        <v>285</v>
+        <v>8</v>
       </c>
       <c r="C32" s="2">
-        <v>40906</v>
+        <v>41295</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>10</v>
@@ -1442,11 +1442,11 @@
       <c r="E32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="1">
-        <v>37.5</v>
+      <c r="F32" s="1">
+        <v>355.55</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>10</v>
@@ -1460,13 +1460,13 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>32800</v>
+        <v>32003</v>
       </c>
       <c r="B33" s="1">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="C33" s="2">
-        <v>39884</v>
+        <v>39531</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>10</v>
@@ -1478,7 +1478,7 @@
         <v>10</v>
       </c>
       <c r="G33" s="1">
-        <v>45.23</v>
+        <v>28.37</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>10</v>
@@ -1492,13 +1492,13 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>33207</v>
+        <v>32431</v>
       </c>
       <c r="B34" s="1">
-        <v>99</v>
+        <v>285</v>
       </c>
       <c r="C34" s="2">
-        <v>39870</v>
+        <v>40906</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>10</v>
@@ -1509,11 +1509,11 @@
       <c r="F34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="1">
-        <v>38.380000000000003</v>
+      <c r="G34" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>10</v>
@@ -1524,13 +1524,13 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>33897</v>
+        <v>32800</v>
       </c>
       <c r="B35" s="1">
-        <v>457</v>
+        <v>50</v>
       </c>
       <c r="C35" s="2">
-        <v>39776</v>
+        <v>39884</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>10</v>
@@ -1541,11 +1541,11 @@
       <c r="F35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="1">
+      <c r="G35" s="1">
         <v>45.23</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>10</v>
@@ -1556,13 +1556,13 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>34322</v>
+        <v>33207</v>
       </c>
       <c r="B36" s="1">
-        <v>230</v>
+        <v>99</v>
       </c>
       <c r="C36" s="2">
-        <v>39745</v>
+        <v>39870</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>10</v>
@@ -1577,7 +1577,7 @@
         <v>10</v>
       </c>
       <c r="H36" s="1">
-        <v>24.05</v>
+        <v>38.380000000000003</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>10</v>
@@ -1588,13 +1588,13 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>34504</v>
+        <v>33897</v>
       </c>
       <c r="B37" s="1">
-        <v>289</v>
+        <v>457</v>
       </c>
       <c r="C37" s="2">
-        <v>40318</v>
+        <v>39776</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>10</v>
@@ -1609,7 +1609,7 @@
         <v>10</v>
       </c>
       <c r="H37" s="1">
-        <v>261.05</v>
+        <v>45.23</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>10</v>
@@ -1620,13 +1620,13 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>34952</v>
+        <v>34322</v>
       </c>
       <c r="B38" s="1">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="C38" s="2">
-        <v>41264</v>
+        <v>39745</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>10</v>
@@ -1634,14 +1634,14 @@
       <c r="E38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="1">
-        <v>132.69999999999999</v>
+      <c r="F38" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>10</v>
+      <c r="H38" s="1">
+        <v>24.05</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>10</v>
@@ -1652,13 +1652,13 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>36567</v>
+        <v>34504</v>
       </c>
       <c r="B39" s="1">
-        <v>86</v>
+        <v>289</v>
       </c>
       <c r="C39" s="2">
-        <v>39780</v>
+        <v>40318</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>10</v>
@@ -1673,7 +1673,7 @@
         <v>10</v>
       </c>
       <c r="H39" s="1">
-        <v>29.52</v>
+        <v>261.05</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>10</v>
@@ -1684,13 +1684,13 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>37203</v>
+        <v>34952</v>
       </c>
       <c r="B40" s="1">
-        <v>248</v>
+        <v>20</v>
       </c>
       <c r="C40" s="2">
-        <v>41060</v>
+        <v>41264</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>10</v>
@@ -1698,14 +1698,14 @@
       <c r="E40" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>10</v>
+      <c r="F40" s="1">
+        <v>132.69999999999999</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H40" s="1">
-        <v>38.67</v>
+      <c r="H40" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>10</v>
@@ -1716,13 +1716,13 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>38299</v>
+        <v>36567</v>
       </c>
       <c r="B41" s="1">
-        <v>478</v>
+        <v>86</v>
       </c>
       <c r="C41" s="2">
-        <v>39836</v>
+        <v>39780</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>10</v>
@@ -1737,7 +1737,7 @@
         <v>10</v>
       </c>
       <c r="H41" s="1">
-        <v>7.53</v>
+        <v>29.52</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>10</v>
@@ -1748,13 +1748,13 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>38882</v>
+        <v>37203</v>
       </c>
       <c r="B42" s="1">
-        <v>56</v>
+        <v>248</v>
       </c>
       <c r="C42" s="2">
-        <v>39876</v>
+        <v>41060</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>10</v>
@@ -1769,7 +1769,7 @@
         <v>10</v>
       </c>
       <c r="H42" s="1">
-        <v>352.25</v>
+        <v>38.67</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>10</v>
@@ -1780,13 +1780,13 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>39381</v>
+        <v>38299</v>
       </c>
       <c r="B43" s="1">
-        <v>59</v>
+        <v>478</v>
       </c>
       <c r="C43" s="2">
-        <v>39777</v>
+        <v>39836</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>10</v>
@@ -1801,7 +1801,7 @@
         <v>10</v>
       </c>
       <c r="H43" s="1">
-        <v>397.1</v>
+        <v>7.53</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>10</v>
@@ -1812,13 +1812,13 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>39945</v>
+        <v>38882</v>
       </c>
       <c r="B44" s="1">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="C44" s="2">
-        <v>42324</v>
+        <v>39876</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>10</v>
@@ -1833,7 +1833,7 @@
         <v>10</v>
       </c>
       <c r="H44" s="1">
-        <v>15262.15</v>
+        <v>352.25</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>10</v>
@@ -1844,13 +1844,13 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>40039</v>
+        <v>39381</v>
       </c>
       <c r="B45" s="1">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C45" s="2">
-        <v>41514</v>
+        <v>39777</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>10</v>
@@ -1865,7 +1865,7 @@
         <v>10</v>
       </c>
       <c r="H45" s="1">
-        <v>45.17</v>
+        <v>397.1</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>10</v>
@@ -1876,13 +1876,13 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>40310</v>
+        <v>39945</v>
       </c>
       <c r="B46" s="1">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C46" s="2">
-        <v>41127</v>
+        <v>42324</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>10</v>
@@ -1890,14 +1890,14 @@
       <c r="E46" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F46" s="1">
-        <v>120.45</v>
+      <c r="F46" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>10</v>
+      <c r="H46" s="1">
+        <v>15262.15</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>10</v>
@@ -1908,33 +1908,481 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
+        <v>40039</v>
+      </c>
+      <c r="B47" s="1">
+        <v>49</v>
+      </c>
+      <c r="C47" s="2">
+        <v>41514</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="1">
+        <v>45.17</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>40310</v>
+      </c>
+      <c r="B48" s="1">
+        <v>37</v>
+      </c>
+      <c r="C48" s="2">
+        <v>41127</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="1">
+        <v>120.45</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
         <v>40311</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B49" s="1">
         <v>35</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C49" s="2">
         <v>41130</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="1">
+      <c r="D49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="1">
         <v>169.95</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J47" s="1" t="s">
+      <c r="F49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>40673</v>
+      </c>
+      <c r="B50" s="1">
+        <v>32</v>
+      </c>
+      <c r="C50" s="2">
+        <v>40599</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="1">
+        <v>373.85</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>40982</v>
+      </c>
+      <c r="B51" s="1">
+        <v>89</v>
+      </c>
+      <c r="C51" s="2">
+        <v>37854</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" s="1">
+        <v>564.4</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>42553</v>
+      </c>
+      <c r="B52" s="1">
+        <v>46</v>
+      </c>
+      <c r="C52" s="2">
+        <v>39748</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="1">
+        <v>70</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>43119</v>
+      </c>
+      <c r="B53" s="1">
+        <v>455</v>
+      </c>
+      <c r="C53" s="2">
+        <v>41488</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" s="1">
+        <v>143.5</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>43120</v>
+      </c>
+      <c r="B54" s="1">
+        <v>453</v>
+      </c>
+      <c r="C54" s="2">
+        <v>39881</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" s="1">
+        <v>99.5</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>43121</v>
+      </c>
+      <c r="B55" s="1">
+        <v>362</v>
+      </c>
+      <c r="C55" s="2">
+        <v>41523</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="1">
+        <v>156.44999999999999</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>43122</v>
+      </c>
+      <c r="B56" s="1">
+        <v>335</v>
+      </c>
+      <c r="C56" s="2">
+        <v>42425</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" s="1">
+        <v>140.53</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>43123</v>
+      </c>
+      <c r="B57" s="1">
+        <v>254</v>
+      </c>
+      <c r="C57" s="2">
+        <v>42411</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="1">
+        <v>719.7</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>43124</v>
+      </c>
+      <c r="B58" s="1">
+        <v>243</v>
+      </c>
+      <c r="C58" s="2">
+        <v>39884</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" s="1">
+        <v>44.8</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B59" s="1">
+        <v>219</v>
+      </c>
+      <c r="C59" s="2">
+        <v>39871</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" s="1">
+        <v>10.61</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B60" s="1">
+        <v>69</v>
+      </c>
+      <c r="C60" s="2">
+        <v>39748</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" s="1">
+        <v>356</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>46335</v>
+      </c>
+      <c r="B61" s="1">
+        <v>98</v>
+      </c>
+      <c r="C61" s="2">
+        <v>40899</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" s="1">
+        <v>429.45</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J61" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/LoadScripts/Database/Database/Datafeed/TradeMasterKey_DataFeed.xlsx
+++ b/LoadScripts/Database/Database/Datafeed/TradeMasterKey_DataFeed.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pradeepd\Desktop\Personal_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pradeep.dhanrajani\Desktop\Personal_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3A995C65-16D5-4D81-AD8A-5F05B8CC4489}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18252" windowHeight="8292"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18250" windowHeight="8290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="11">
   <si>
     <t>JesseTradingMasterKeyId</t>
   </si>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -413,28 +414,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>6773</v>
       </c>
@@ -498,7 +499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>6774</v>
       </c>
@@ -530,7 +531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>9344</v>
       </c>
@@ -562,7 +563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>9829</v>
       </c>
@@ -594,7 +595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>10857</v>
       </c>
@@ -626,7 +627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>13792</v>
       </c>
@@ -658,7 +659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>14769</v>
       </c>
@@ -690,7 +691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>16171</v>
       </c>
@@ -722,7 +723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>16173</v>
       </c>
@@ -754,7 +755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>16688</v>
       </c>
@@ -786,7 +787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>16870</v>
       </c>
@@ -818,7 +819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>17565</v>
       </c>
@@ -850,7 +851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>18659</v>
       </c>
@@ -882,7 +883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>18888</v>
       </c>
@@ -914,7 +915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>19058</v>
       </c>
@@ -946,7 +947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>19306</v>
       </c>
@@ -978,7 +979,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>19535</v>
       </c>
@@ -1010,7 +1011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>20309</v>
       </c>
@@ -1042,7 +1043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>21226</v>
       </c>
@@ -1074,7 +1075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>21670</v>
       </c>
@@ -1106,7 +1107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>23126</v>
       </c>
@@ -1138,7 +1139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>24959</v>
       </c>
@@ -1170,7 +1171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>25464</v>
       </c>
@@ -1202,7 +1203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>25681</v>
       </c>
@@ -1234,7 +1235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25682</v>
       </c>
@@ -1266,7 +1267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>27000</v>
       </c>
@@ -1298,7 +1299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27279</v>
       </c>
@@ -1330,7 +1331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27712</v>
       </c>
@@ -1362,7 +1363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28799</v>
       </c>
@@ -1394,7 +1395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>28800</v>
       </c>
@@ -1426,7 +1427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>28801</v>
       </c>
@@ -1458,7 +1459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>32003</v>
       </c>
@@ -1490,7 +1491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32431</v>
       </c>
@@ -1522,7 +1523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>32800</v>
       </c>
@@ -1554,7 +1555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>33207</v>
       </c>
@@ -1586,7 +1587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>33897</v>
       </c>
@@ -1618,7 +1619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>34322</v>
       </c>
@@ -1650,7 +1651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>34504</v>
       </c>
@@ -1682,7 +1683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>34952</v>
       </c>
@@ -1714,7 +1715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>36567</v>
       </c>
@@ -1746,7 +1747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>37203</v>
       </c>
@@ -1778,7 +1779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>38299</v>
       </c>
@@ -1810,7 +1811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>38882</v>
       </c>
@@ -1842,7 +1843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>39381</v>
       </c>
@@ -1874,7 +1875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>39945</v>
       </c>
@@ -1906,7 +1907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>40039</v>
       </c>
@@ -1938,7 +1939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>40310</v>
       </c>
@@ -1970,7 +1971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>40311</v>
       </c>
@@ -2002,7 +2003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>40673</v>
       </c>
@@ -2034,7 +2035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>40982</v>
       </c>
@@ -2066,7 +2067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>42553</v>
       </c>
@@ -2098,7 +2099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>43119</v>
       </c>
@@ -2130,7 +2131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>43120</v>
       </c>
@@ -2162,7 +2163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>43121</v>
       </c>
@@ -2194,7 +2195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>43122</v>
       </c>
@@ -2226,7 +2227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>43123</v>
       </c>
@@ -2258,7 +2259,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>43124</v>
       </c>
@@ -2290,7 +2291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>45548</v>
       </c>
@@ -2322,7 +2323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>46030</v>
       </c>
@@ -2354,7 +2355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>46335</v>
       </c>
@@ -2383,6 +2384,486 @@
         <v>10</v>
       </c>
       <c r="J61" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>48392</v>
+      </c>
+      <c r="B62" s="1">
+        <v>67</v>
+      </c>
+      <c r="C62" s="2">
+        <v>38877</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="1">
+        <v>180.8</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>48393</v>
+      </c>
+      <c r="B63" s="1">
+        <v>68</v>
+      </c>
+      <c r="C63" s="2">
+        <v>39871</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" s="1">
+        <v>15.05</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>49405</v>
+      </c>
+      <c r="B64" s="1">
+        <v>79</v>
+      </c>
+      <c r="C64" s="2">
+        <v>41515</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" s="1">
+        <v>11.85</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>49689</v>
+      </c>
+      <c r="B65" s="1">
+        <v>87</v>
+      </c>
+      <c r="C65" s="2">
+        <v>41625</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65" s="1">
+        <v>202.95</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>52452</v>
+      </c>
+      <c r="B66" s="1">
+        <v>5</v>
+      </c>
+      <c r="C66" s="2">
+        <v>39881</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" s="1">
+        <v>56.28</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>54198</v>
+      </c>
+      <c r="B67" s="1">
+        <v>399</v>
+      </c>
+      <c r="C67" s="2">
+        <v>42675</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="1">
+        <v>395.8</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>57658</v>
+      </c>
+      <c r="B68" s="1">
+        <v>15</v>
+      </c>
+      <c r="C68" s="2">
+        <v>39772</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H68" s="1">
+        <v>103.05</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>65897</v>
+      </c>
+      <c r="B69" s="1">
+        <v>107</v>
+      </c>
+      <c r="C69" s="2">
+        <v>39835</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="1">
+        <v>36.549999999999997</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>67327</v>
+      </c>
+      <c r="B70" s="1">
+        <v>13</v>
+      </c>
+      <c r="C70" s="2">
+        <v>38474</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H70" s="1">
+        <v>316.88</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>74803</v>
+      </c>
+      <c r="B71" s="1">
+        <v>272</v>
+      </c>
+      <c r="C71" s="2">
+        <v>39884</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" s="1">
+        <v>115.95</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>107481</v>
+      </c>
+      <c r="B72" s="1">
+        <v>3</v>
+      </c>
+      <c r="C72" s="2">
+        <v>39884</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" s="1">
+        <v>70.92</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>111664</v>
+      </c>
+      <c r="B73" s="1">
+        <v>22</v>
+      </c>
+      <c r="C73" s="2">
+        <v>39148</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H73" s="1">
+        <v>167.3</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>112443</v>
+      </c>
+      <c r="B74" s="1">
+        <v>27</v>
+      </c>
+      <c r="C74" s="2">
+        <v>39797</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H74" s="1">
+        <v>137.79</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>113057</v>
+      </c>
+      <c r="B75" s="1">
+        <v>30</v>
+      </c>
+      <c r="C75" s="2">
+        <v>39877</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H75" s="1">
+        <v>54.1</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>118636</v>
+      </c>
+      <c r="B76" s="1">
+        <v>4</v>
+      </c>
+      <c r="C76" s="2">
+        <v>40865</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H76" s="1">
+        <v>41</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J76" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/LoadScripts/Database/Database/Datafeed/TradeMasterKey_DataFeed.xlsx
+++ b/LoadScripts/Database/Database/Datafeed/TradeMasterKey_DataFeed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pradeep.dhanrajani\Desktop\Personal_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3A995C65-16D5-4D81-AD8A-5F05B8CC4489}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF068E7-BD1F-4EBD-93BA-11AC3467FFB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18250" windowHeight="8290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,8 +417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
